--- a/data/trans_camb/P57_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Clase-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,15</t>
+          <t>-6,51; 2,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 1,0</t>
+          <t>-7,02; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,02</t>
+          <t>-5,82; 0,21</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 20,88</t>
+          <t>-40,13; 26,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 10,4</t>
+          <t>-48,71; 16,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,68; 0,33</t>
+          <t>-40,13; 2,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,77</t>
+          <t>-6,6; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 2,99</t>
+          <t>-6,82; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 1,05</t>
+          <t>-5,53; 0,81</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 17,59</t>
+          <t>-44,65; 25,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 23,76</t>
+          <t>-39,22; 23,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 9,27</t>
+          <t>-36,0; 7,13</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -6,08</t>
+          <t>-21,87; -6,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -2,18</t>
+          <t>-19,91; -2,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,96; -7,04</t>
+          <t>-23,15; -7,15</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-83,93; -27,26</t>
+          <t>-85,83; -28,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -8,2</t>
+          <t>-55,14; -7,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,0; -30,03</t>
+          <t>-80,91; -29,71</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,55</t>
+          <t>-6,62; -0,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,67; -7,06</t>
+          <t>-17,55; -7,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -4,64</t>
+          <t>-11,43; -4,82</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,24; -2,68</t>
+          <t>-32,75; -3,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,56; -37,02</t>
+          <t>-78,73; -37,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,1; -25,36</t>
+          <t>-58,12; -26,16</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,27; -2,6</t>
+          <t>-12,81; -2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -4,73</t>
+          <t>-15,64; -3,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -5,0</t>
+          <t>-12,63; -4,82</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-42,27; -10,54</t>
+          <t>-42,13; -10,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,35; -16,29</t>
+          <t>-47,9; -13,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,59; -17,59</t>
+          <t>-41,65; -16,88</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,51</t>
+          <t>-6,49; 2,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 0,15</t>
+          <t>-7,2; 0,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -0,73</t>
+          <t>-7,03; -0,57</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 62,24</t>
+          <t>-74,51; 56,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 0,8</t>
+          <t>-26,12; 1,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,51; -3,17</t>
+          <t>-30,4; -2,97</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,12</t>
+          <t>-8,54; -3,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,85; -5,67</t>
+          <t>-10,56; -5,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -5,29</t>
+          <t>-8,96; -5,22</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,6; -23,38</t>
+          <t>-46,62; -21,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,79; -25,21</t>
+          <t>-43,93; -23,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-41,38; -25,92</t>
+          <t>-42,04; -25,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Clase-trans_camb.xlsx
@@ -1026,7 +1026,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
